--- a/Actieplan_Python.xlsx
+++ b/Actieplan_Python.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f020cdb928d38096/Programmeren/Odisee/LevensLang_Leren/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f020cdb928d38096/Programmeren/Odisee/LevensLang_Leren/LLL-BartBrondeel-2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{482E40B1-4C12-41F6-8D36-DD9DCD6004AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF2D71FB-7664-419F-A70D-C1291DE327CD}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{482E40B1-4C12-41F6-8D36-DD9DCD6004AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C0465B8-54AA-4A08-BF64-A6CE3A577E3F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actieplan" sheetId="1" r:id="rId1"/>
@@ -642,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
@@ -760,7 +760,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10">
         <f>('Werkelijke uren'!D32)</f>
-        <v>16.25</v>
+        <v>18.25</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>22</v>
@@ -835,7 +835,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10">
         <f>('Werkelijke uren'!C103)</f>
-        <v>16.25</v>
+        <v>18.25</v>
       </c>
       <c r="J7" s="10"/>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="I22">
         <f>SUM(I7,I14,I20)</f>
-        <v>16.25</v>
+        <v>18.25</v>
       </c>
     </row>
   </sheetData>
@@ -1163,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3793691-12BB-4C09-897D-D3E0C91FA681}">
   <dimension ref="B2:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,6 +1237,9 @@
       <c r="B10">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -1349,7 +1352,7 @@
       </c>
       <c r="D32">
         <f>SUM(C3:C32)</f>
-        <v>16.25</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -1716,7 +1719,7 @@
       </c>
       <c r="C103">
         <f>SUM(C3:C102)</f>
-        <v>16.25</v>
+        <v>18.25</v>
       </c>
     </row>
   </sheetData>

--- a/Actieplan_Python.xlsx
+++ b/Actieplan_Python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f020cdb928d38096/Programmeren/Odisee/LevensLang_Leren/LLL-BartBrondeel-2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{482E40B1-4C12-41F6-8D36-DD9DCD6004AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C0465B8-54AA-4A08-BF64-A6CE3A577E3F}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{482E40B1-4C12-41F6-8D36-DD9DCD6004AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C609046-2913-4D70-BFDB-8724F256E8AC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actieplan" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Einddatum</t>
   </si>
   <si>
-    <t>Geschatte duur (dagen)</t>
-  </si>
-  <si>
     <t>Startdatum (werkelijk)</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>Toraal:</t>
+  </si>
+  <si>
+    <t>Geschatte duur (uren)</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,17 +662,17 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
       <c r="D1" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="1"/>
       <c r="G1" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="17"/>
       <c r="I1" s="1"/>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
@@ -695,19 +695,19 @@
         <v>3</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -715,10 +715,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="13">
         <v>45945</v>
@@ -728,7 +728,7 @@
       </c>
       <c r="F3" s="5">
         <f>SUM(F4:F8)</f>
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="G3" s="16">
         <v>45945</v>
@@ -742,10 +742,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="11">
         <v>45945</v>
@@ -754,16 +754,16 @@
         <v>45987</v>
       </c>
       <c r="F4" s="10">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10">
         <f>('Werkelijke uren'!D32)</f>
-        <v>18.25</v>
+        <v>25.75</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -771,10 +771,10 @@
         <v>1.2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="11">
         <v>45988</v>
@@ -783,7 +783,7 @@
         <v>46029</v>
       </c>
       <c r="F5" s="10">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -800,10 +800,10 @@
         <v>1.3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="11">
         <v>46030</v>
@@ -812,7 +812,7 @@
         <v>46071</v>
       </c>
       <c r="F6" s="10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -835,7 +835,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10">
         <f>('Werkelijke uren'!C103)</f>
-        <v>18.25</v>
+        <v>25.75</v>
       </c>
       <c r="J7" s="10"/>
     </row>
@@ -856,10 +856,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="12">
         <v>46071</v>
@@ -875,7 +875,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -883,10 +883,10 @@
         <v>2.1</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="11">
         <v>46071</v>
@@ -901,7 +901,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -909,10 +909,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="11">
         <v>46090</v>
@@ -927,7 +927,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -935,10 +935,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="11">
         <v>46111</v>
@@ -959,10 +959,10 @@
         <v>2.4</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -1006,16 +1006,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="12">
         <v>46119</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2">
         <f>SUM(F17:F21)</f>
@@ -1033,10 +1033,10 @@
         <v>3.1</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="11">
         <v>46119</v>
@@ -1051,7 +1051,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1059,10 +1059,10 @@
         <v>3.2</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="11">
         <v>46140</v>
@@ -1077,7 +1077,7 @@
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1085,10 +1085,10 @@
         <v>3.3</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="11">
         <v>46167</v>
@@ -1103,7 +1103,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1135,18 +1135,18 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E22" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22">
         <f>SUM(F16,F9,F3)</f>
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22">
         <f>SUM(I7,I14,I20)</f>
-        <v>18.25</v>
+        <v>25.75</v>
       </c>
     </row>
   </sheetData>
@@ -1164,17 +1164,17 @@
   <dimension ref="B2:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -1245,21 +1245,33 @@
       <c r="B11">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -1352,7 +1364,7 @@
       </c>
       <c r="D32">
         <f>SUM(C3:C32)</f>
-        <v>18.25</v>
+        <v>25.75</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -1715,11 +1727,11 @@
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C103">
         <f>SUM(C3:C102)</f>
-        <v>18.25</v>
+        <v>25.75</v>
       </c>
     </row>
   </sheetData>

--- a/Actieplan_Python.xlsx
+++ b/Actieplan_Python.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f020cdb928d38096/Programmeren/Odisee/LevensLang_Leren/LLL-BartBrondeel-2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{482E40B1-4C12-41F6-8D36-DD9DCD6004AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C609046-2913-4D70-BFDB-8724F256E8AC}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{482E40B1-4C12-41F6-8D36-DD9DCD6004AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EDE279F-45DC-49D4-B35C-B780924A38B7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actieplan" sheetId="1" r:id="rId1"/>
@@ -642,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -760,7 +760,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10">
         <f>('Werkelijke uren'!D32)</f>
-        <v>25.75</v>
+        <v>30.5</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>21</v>
@@ -835,7 +835,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10">
         <f>('Werkelijke uren'!C103)</f>
-        <v>25.75</v>
+        <v>30.5</v>
       </c>
       <c r="J7" s="10"/>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="I22">
         <f>SUM(I7,I14,I20)</f>
-        <v>25.75</v>
+        <v>30.5</v>
       </c>
     </row>
   </sheetData>
@@ -1163,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3793691-12BB-4C09-897D-D3E0C91FA681}">
   <dimension ref="B2:D103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,11 +1277,17 @@
       <c r="B15">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>14</v>
       </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17">
@@ -1364,7 +1370,7 @@
       </c>
       <c r="D32">
         <f>SUM(C3:C32)</f>
-        <v>25.75</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
@@ -1731,7 +1737,7 @@
       </c>
       <c r="C103">
         <f>SUM(C3:C102)</f>
-        <v>25.75</v>
+        <v>30.5</v>
       </c>
     </row>
   </sheetData>
